--- a/mc/noisy/TWF.FIMTX HOT  _dqn_noisy Back-Testing Strategy Performance Report.xlsx
+++ b/mc/noisy/TWF.FIMTX HOT  _dqn_noisy Back-Testing Strategy Performance Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\A-Deep-RL-Framework-for-Index-futures-Trading\mc\noisy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CAE536-4C3F-4576-A8A6-97F2842A4FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC60DE3-9DA6-4660-BA3E-33EE8CA9418D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12540" xr2:uid="{D4198855-4E8E-4A75-AB8F-93E55A2038B1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25890" windowHeight="12540" xr2:uid="{3559EDD3-2F3B-4C35-A6CB-14838FB107D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Analysis" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
   <si>
     <t>Strategy Performance Summary</t>
   </si>
@@ -199,13 +199,13 @@
     <t>Trading Period</t>
   </si>
   <si>
-    <t>11 Yrs, 1 Mth, 12 Dys</t>
+    <t>11 Yrs, 5 Mths, 3 Dys</t>
   </si>
   <si>
     <t>Time in the Market</t>
   </si>
   <si>
-    <t>8 Yrs, 11 Mths, 15 Dys</t>
+    <t>9 Yrs, 3 Mths, 17 Dys</t>
   </si>
   <si>
     <t>Percent in the Market</t>
@@ -658,7 +658,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB13D6F-FD44-4C49-90B1-F6EE05E8677E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606CBDEB-AC18-4F71-8B6A-9178D471B606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +702,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CD87B2-DC90-49DD-9336-7E35DC00E0EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270EA1FB-A019-4C77-A363-C33651DAB1A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,7 +746,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F76844E-3649-4AE8-BC4A-99D1B9266902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{140A41A9-1C7F-41B7-9564-04911995DB8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,7 +790,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD9DEDD-C067-48E5-A5A2-9372EB393746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE729F1-B370-40F0-BF10-827A5D88393A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -834,7 +834,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9A1CE1-9AF6-43A6-80B0-7C2A956ED200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE0CAFCD-011F-4229-A674-E815C345BF5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +878,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7AE42E-8501-4868-BD0A-80DD0D01C9ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F67F8C4-B437-4630-B98A-DD8C6C0035F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,7 +922,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E643EA-9C20-4A5A-A557-0A47AC672293}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2E0C2E-3C53-41FF-B503-419D0BAA9952}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -966,7 +966,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85AF3256-C8F0-4FF6-8411-707C80D3FDAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CB77AC-4221-478D-93D1-DD084B46503B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670348AC-E157-438F-88E8-54E6A36B8309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE1A8A4-EC98-47BC-92CD-63AFCF06BA2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1054,7 +1054,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57226BF9-ED44-471D-8896-BA9BAA17FBC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7DB0D4-3CE5-4B00-B21F-6D7AD82FCBE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,13 +1089,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1103,7 +1103,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59CD1BC-AFD4-45D9-A512-2DA321B8AC5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97636993-89B8-4585-A8AE-96C3E715447E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1119,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17297400"/>
+          <a:off x="0" y="17510760"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1133,13 +1133,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1147,7 +1147,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF0E6E2-7A0D-4DAB-A74C-B60F426B4027}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5982E1-0A92-4974-AC2F-047555E840D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28430220"/>
+          <a:off x="0" y="28643580"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1177,13 +1177,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>185</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1191,7 +1191,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F28D7EA-EB75-46C0-AA8C-0C1180B9D9E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81350A6A-63E1-49ED-8450-B4C91D95A63C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1207,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39563040"/>
+          <a:off x="0" y="39776400"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1221,13 +1221,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1235,7 +1235,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DACF4F-402B-4091-AF17-A8A8992DA629}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0576A69A-B9B2-4129-8A4A-8094DF4F42D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1251,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="50695860"/>
+          <a:off x="0" y="50909220"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1265,13 +1265,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1279,7 +1279,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30E0CC9-8F14-418E-9532-B2BA545BF272}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8D4D2A-2531-4B90-9CE8-FE46742B4503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,7 +1295,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="61828680"/>
+          <a:off x="0" y="62042040"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1309,13 +1309,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1323,7 +1323,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E74D830-AB37-45DC-A49B-A710117955CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE506F57-665D-4B80-96F5-F8014AFBB856}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="72961500"/>
+          <a:off x="0" y="73174860"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1353,13 +1353,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>393</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>427</xdr:row>
+      <xdr:row>428</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1367,7 +1367,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C718F6-1A6D-4820-821A-A6BB18D8927D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2561B987-0286-457C-B5F5-22962B65E960}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1383,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="84094320"/>
+          <a:off x="0" y="84307680"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1397,13 +1397,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>444</xdr:row>
+      <xdr:row>445</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>479</xdr:row>
+      <xdr:row>480</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1411,7 +1411,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15C0A30-B331-405A-AF07-B926CEC25276}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15E49DB-B2A4-4E54-9627-1F02B07A0752}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="95227140"/>
+          <a:off x="0" y="95440500"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1441,13 +1441,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>496</xdr:row>
+      <xdr:row>497</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1403033</xdr:colOff>
-      <xdr:row>531</xdr:row>
+      <xdr:row>532</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77A77B70-A470-4EA8-8ADB-26A05277FCA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5CCC1F-BEA2-40CB-AC71-14E529E7ECD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="106359960"/>
+          <a:off x="0" y="106573320"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1485,13 +1485,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>548</xdr:row>
+      <xdr:row>549</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1397318</xdr:colOff>
-      <xdr:row>583</xdr:row>
+      <xdr:row>584</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1499,7 +1499,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D741149-EA56-4792-B48C-0C3AECCB6DCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D27FA73-5B47-4C29-8656-34CD7EADCFB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="117492780"/>
+          <a:off x="0" y="117706140"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1529,13 +1529,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>600</xdr:row>
+      <xdr:row>601</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1385888</xdr:colOff>
-      <xdr:row>635</xdr:row>
+      <xdr:row>636</xdr:row>
       <xdr:rowOff>151448</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C389040A-74E3-4D9F-B608-859591C0C6FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F782A9C-46AB-402F-8884-66284AAB0C2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="128625600"/>
+          <a:off x="0" y="128838960"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1592,7 +1592,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BF03BF-8483-40DB-84F2-C6D0A136988E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF7AF85-8469-4FE8-BA89-15318711DD86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1636,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A8614F-1950-41B8-BFCE-AE26F644E364}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404F6E32-5410-4294-9872-985E0BD3AE9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1680,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0970DB25-F61D-4CAD-A026-F0928811B1EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75420511-9648-4737-89A0-5C433E3022C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1724,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E58773A-44AB-4DCA-9D69-817D4BF41758}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB1022E-B4F0-4CED-90D1-0D351984AE03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1768,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B63F41-93F1-4EBB-9290-23C0F3B25E2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66102F16-97DF-4005-8384-12F59D2BFBE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1812,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91210420-671E-4377-AA0C-CFF53498DE02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C99E918-4A7C-48D6-B6C1-45B74E7D63B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1856,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FDFB7D-C0E2-45FE-AC55-38DA4D1EE4A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A57327-5712-42F8-82AB-68E533C1A627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1900,7 @@
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2AB11B-0F19-4658-94F4-F3C4302AEE53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361A83EA-7DF0-4511-970D-3B04831EEE92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1944,7 @@
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95089127-6E7E-4AC0-B077-5037F3562DAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49709102-C9A3-4735-8D69-6E3DC3917300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1988,7 @@
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC8C133-D99C-4F34-BC5B-2AFB04C0D412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D494435-A02B-4F3A-8598-51D2EFD661B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2032,7 @@
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8303F9-36B6-46E0-9BA4-14CF1526241D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493ECFF7-A3BE-440A-A52A-415D204423AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2076,7 @@
         <xdr:cNvPr id="13" name="圖片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62E6C4B-4825-4768-BC1E-39871197104C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD6CFF7-5E7A-486A-A395-B0E484C6BEB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2120,7 @@
         <xdr:cNvPr id="14" name="圖片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8B95A7-B887-4E4D-8AA2-E7EAE18DCE13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8999B810-16A7-48B1-9B51-AC60B094005B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2164,7 @@
         <xdr:cNvPr id="15" name="圖片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E810C4-0ACF-4CB5-9CA1-AB8053BEDB39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C9D27F-67CA-40C8-A111-8FD881930A1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="16" name="圖片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E722EC4-BBD3-4F5C-B1BE-B24C75D426E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5278B50F-25F5-4097-BAB1-CBD21E574A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2252,7 @@
         <xdr:cNvPr id="17" name="圖片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9E8AF6-E7B8-4573-A664-601F78E41AB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDF820D-0F67-4CAD-9133-03B74971A8DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97490174-8E79-4D4A-A735-F62D8AD27D5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26ABC598-99FA-4B4D-8435-2ECE8EC85645}">
   <dimension ref="A1:D538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2609,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>3361400</v>
+        <v>3677000</v>
       </c>
       <c r="C4" s="3">
-        <v>3361400</v>
+        <v>3677000</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -2623,10 +2623,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>7027400</v>
+        <v>7469600</v>
       </c>
       <c r="C5" s="3">
-        <v>7027400</v>
+        <v>7469600</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -2637,10 +2637,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>-3666000</v>
+        <v>-3792600</v>
       </c>
       <c r="C6" s="3">
-        <v>-3666000</v>
+        <v>-3792600</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -2651,10 +2651,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>2458789.7419703645</v>
+        <v>2708872.7106671277</v>
       </c>
       <c r="C7" s="3">
-        <v>2458789.7419703645</v>
+        <v>2708872.7106671277</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -2665,10 +2665,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>6411056.2475121794</v>
+        <v>6804155.1424703179</v>
       </c>
       <c r="C8" s="3">
-        <v>6411056.2475121794</v>
+        <v>6804155.1424703179</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -2679,10 +2679,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>-3952266.5055418145</v>
+        <v>-4095282.4318031906</v>
       </c>
       <c r="C9" s="3">
-        <v>-3952266.5055418145</v>
+        <v>-4095282.4318031906</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -2693,10 +2693,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>1903200</v>
+        <v>2061400</v>
       </c>
       <c r="C10" s="3">
-        <v>1903200</v>
+        <v>2061400</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -2707,10 +2707,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>4394400</v>
+        <v>4575000</v>
       </c>
       <c r="C11" s="3">
-        <v>4394400</v>
+        <v>4575000</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -2721,10 +2721,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>-2491200</v>
+        <v>-2513600</v>
       </c>
       <c r="C12" s="3">
-        <v>-2491200</v>
+        <v>-2513600</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -2735,10 +2735,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>398400</v>
+        <v>407400</v>
       </c>
       <c r="C13" s="3">
-        <v>398400</v>
+        <v>407400</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
@@ -2749,10 +2749,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>8.4372489959839356</v>
+        <v>9.025527736867943</v>
       </c>
       <c r="C14" s="4">
-        <v>8.4372489959839356</v>
+        <v>9.025527736867943</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -2763,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>3.3614000000000002</v>
+        <v>3.677</v>
       </c>
       <c r="C15" s="4">
-        <v>3.3614000000000002</v>
+        <v>3.677</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>5</v>
@@ -2777,10 +2777,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>-538200</v>
+        <v>-547200</v>
       </c>
       <c r="C16" s="3">
-        <v>-538200</v>
+        <v>-547200</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>5</v>
@@ -2791,10 +2791,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>-21.321931730567041</v>
+        <v>-18.361799939599344</v>
       </c>
       <c r="C17" s="4">
-        <v>-21.321931730567041</v>
+        <v>-18.361799939599344</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>5</v>
@@ -2805,10 +2805,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="3">
-        <v>-398400</v>
+        <v>-407400</v>
       </c>
       <c r="C18" s="3">
-        <v>-398400</v>
+        <v>-407400</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
@@ -2819,10 +2819,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="4">
-        <v>-0.16876829542895744</v>
+        <v>-0.13941106161034444</v>
       </c>
       <c r="C19" s="4">
-        <v>-0.16876829542895744</v>
+        <v>-0.13941106161034444</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>5</v>
@@ -2833,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>6.2456335934596803</v>
+        <v>6.7196637426900585</v>
       </c>
       <c r="C20">
-        <v>6.2456335934596803</v>
+        <v>6.7196637426900585</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2847,10 +2847,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1.9169121658483361</v>
+        <v>1.9695195907820493</v>
       </c>
       <c r="C21">
-        <v>1.9169121658483361</v>
+        <v>1.9695195907820493</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2861,10 +2861,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1.6221214431068054</v>
+        <v>1.6614617564909648</v>
       </c>
       <c r="C22">
-        <v>1.6221214431068054</v>
+        <v>1.6614617564909648</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2875,10 +2875,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1.7639691714836223</v>
+        <v>1.8200986632718015</v>
       </c>
       <c r="C23">
-        <v>1.7639691714836223</v>
+        <v>1.8200986632718015</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -2917,10 +2917,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>296500</v>
+        <v>283000</v>
       </c>
       <c r="C26" s="3">
-        <v>296500</v>
+        <v>283000</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -2930,11 +2930,11 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-36500</v>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
@@ -2945,10 +2945,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>0.30329825839920949</v>
+        <v>0.32291999278672756</v>
       </c>
       <c r="C28" s="4">
-        <v>0.30329825839920949</v>
+        <v>0.32291999278672756</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>5</v>
@@ -2959,10 +2959,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>2.5274854866600787E-2</v>
+        <v>2.690999939889396E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>2.5274854866600787E-2</v>
+        <v>2.690999939889396E-2</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>5</v>
@@ -2973,10 +2973,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>1199863.9455782312</v>
+        <v>1386938.775510204</v>
       </c>
       <c r="C30" s="3">
-        <v>1199863.9455782312</v>
+        <v>1386938.775510204</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -2987,13 +2987,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>24812.686567164179</v>
+        <v>26839.416058394159</v>
       </c>
       <c r="C31" s="3">
-        <v>24812.686567164179</v>
+        <v>26839.416058394159</v>
       </c>
       <c r="D31" s="3">
-        <v>24812.686567164179</v>
+        <v>26839.416058394159</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,13 +3001,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>69675.401449609039</v>
+        <v>71288.158365789743</v>
       </c>
       <c r="C32" s="3">
-        <v>69675.401449609039</v>
+        <v>71288.158365789743</v>
       </c>
       <c r="D32" s="3">
-        <v>69675.401449609039</v>
+        <v>71288.158365789743</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C33">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>0.4391891891891892</v>
+        <v>0.44522968197879859</v>
       </c>
       <c r="C34" s="4">
-        <v>0.4391891891891892</v>
+        <v>0.44522968197879859</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>45.871041138495521</v>
+        <v>51.796983027903593</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.28445453645980023</v>
+        <v>0.30345129782834784</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.98537941918365535</v>
+        <v>1.0511861309228276</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.43846017610059562</v>
+        <v>0.48849245126108415</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.0051226193424908E-2</v>
+        <v>1.056842914309108E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.1206609064726392E-2</v>
+        <v>1.0754290876242098E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.975802638630782E-3</v>
+        <v>1.9772918619608087E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>103.45492454324074</v>
+        <v>103.38356173658583</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>13.275671406003159</v>
+        <v>14.352068696330992</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>12.236621769202767</v>
+        <v>13.385511467054968</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3128,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>6.2456335934596803</v>
+        <v>6.7196637426900585</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>7.5165876777251182</v>
+        <v>8.0460577673692431</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>6.928285402257008</v>
+        <v>7.5041863851474337</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>3.5362318840579712</v>
+        <v>3.7671783625730995</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>9.7108599603884844</v>
+        <v>10.573273655999719</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>8.9508181360406418</v>
+        <v>9.8612038975869236</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>4.5685428130255747</v>
+        <v>4.9504252753419733</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="4">
-        <v>0.8050889328063241</v>
+        <v>0.81389757153161812</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BA6EB8-E82E-4312-9D5C-3B3EC037BE9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E596B1-1DCA-48C1-BFC5-C2FA64E248CB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3330,8 +3330,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D51D14B-C7EA-46D1-92A4-11AEFBD56355}">
-  <dimension ref="A1:D599"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2929FAE-09A2-4181-983C-27A795B7A95A}">
+  <dimension ref="A1:D600"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3362,10 +3362,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C4">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>77</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>78</v>
       </c>
       <c r="B6">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>79</v>
       </c>
       <c r="B7">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C7">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>0.4391891891891892</v>
+        <v>0.44522968197879859</v>
       </c>
       <c r="C8" s="4">
-        <v>0.4391891891891892</v>
+        <v>0.44522968197879859</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>80</v>
       </c>
       <c r="B9" s="3">
-        <v>11356.08108108108</v>
+        <v>12992.932862190813</v>
       </c>
       <c r="C9" s="3">
-        <v>11356.08108108108</v>
+        <v>12992.932862190813</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -3446,10 +3446,10 @@
         <v>81</v>
       </c>
       <c r="B10" s="3">
-        <v>54056.923076923078</v>
+        <v>59282.539682539689</v>
       </c>
       <c r="C10" s="3">
-        <v>54056.923076923078</v>
+        <v>59282.539682539689</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -3460,10 +3460,10 @@
         <v>82</v>
       </c>
       <c r="B11" s="3">
-        <v>-22353.658536585364</v>
+        <v>-24156.687898089171</v>
       </c>
       <c r="C11" s="3">
-        <v>-22353.658536585364</v>
+        <v>-24156.687898089171</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -3474,10 +3474,10 @@
         <v>83</v>
       </c>
       <c r="B12">
-        <v>2.4182584246086702</v>
+        <v>2.4540839345458871</v>
       </c>
       <c r="C12">
-        <v>2.4182584246086702</v>
+        <v>2.4540839345458871</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -3502,10 +3502,10 @@
         <v>85</v>
       </c>
       <c r="B14" s="4">
-        <v>-253200</v>
+        <v>-256200</v>
       </c>
       <c r="C14" s="4">
-        <v>-253200</v>
+        <v>-256200</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -3516,10 +3516,10 @@
         <v>86</v>
       </c>
       <c r="B15">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>8.3000000000000007</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -3530,10 +3530,10 @@
         <v>87</v>
       </c>
       <c r="B16">
-        <v>11.7</v>
+        <v>12.8</v>
       </c>
       <c r="C16">
-        <v>11.7</v>
+        <v>12.8</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -3544,10 +3544,10 @@
         <v>88</v>
       </c>
       <c r="B17">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="C17">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -3557,11 +3557,11 @@
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -3572,10 +3572,10 @@
         <v>90</v>
       </c>
       <c r="B19">
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C19">
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -3586,10 +3586,10 @@
         <v>91</v>
       </c>
       <c r="B20">
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
       <c r="C20">
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -3616,13 +3616,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="3">
-        <v>55445.216481601994</v>
+        <v>60308.454938859919</v>
       </c>
       <c r="C26" s="3">
-        <v>52924.250297277911</v>
+        <v>57349.132972508072</v>
       </c>
       <c r="D26" s="3">
-        <v>27346.785435395479</v>
+        <v>28632.403362152367</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,13 +3630,13 @@
         <v>97</v>
       </c>
       <c r="B27" s="3">
-        <v>66801.297562683074</v>
+        <v>73301.387801050732</v>
       </c>
       <c r="C27" s="3">
-        <v>106981.173374201</v>
+        <v>116631.67265504776</v>
       </c>
       <c r="D27" s="3">
-        <v>4993.1268988101156</v>
+        <v>4475.7154640631943</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,13 +3644,13 @@
         <v>98</v>
       </c>
       <c r="B28" s="3">
-        <v>-44089.135400520914</v>
+        <v>-47315.522076669105</v>
       </c>
       <c r="C28" s="3">
-        <v>1132.6727796451678</v>
+        <v>1933.4067100316133</v>
       </c>
       <c r="D28" s="3">
-        <v>-49700.443971980851</v>
+        <v>-52789.091260241534</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3658,13 +3658,13 @@
         <v>99</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>17</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="B30" s="3">
-        <v>1458200</v>
+        <v>1615600</v>
       </c>
       <c r="C30" s="3">
-        <v>2633000</v>
+        <v>2894600</v>
       </c>
       <c r="D30" s="3">
-        <v>-1174800</v>
+        <v>-1279000</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3721,10 +3721,10 @@
         <v>106</v>
       </c>
       <c r="B38" s="3">
-        <v>41610.774410774407</v>
+        <v>45198.939929328626</v>
       </c>
       <c r="C38" s="3">
-        <v>-22850.168350168347</v>
+        <v>-24498.586572438162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3754,10 @@
         <v>109</v>
       </c>
       <c r="B41" s="4">
-        <v>2.2738962766208029E-2</v>
+        <v>2.4057775510071482E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>-1.2406476709847156E-2</v>
+        <v>-1.2961160803332114E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3765,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="3">
-        <v>47036.578115517506</v>
+        <v>51023.759230033844</v>
       </c>
       <c r="C42" s="3">
-        <v>27673.559344541973</v>
+        <v>29274.436324353253</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>97</v>
       </c>
       <c r="B43" s="3">
-        <v>88647.352526291914</v>
+        <v>96222.69915936247</v>
       </c>
       <c r="C43" s="3">
-        <v>4823.3909943736253</v>
+        <v>4775.8497519150897</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3787,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="3">
-        <v>-5425.8037047430944</v>
+        <v>-5824.8193007052232</v>
       </c>
       <c r="C44" s="3">
-        <v>-50523.727694710324</v>
+        <v>-53773.022896791415</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>112</v>
       </c>
       <c r="B49">
-        <v>-3.6737683573257601E-2</v>
+        <v>8.4129883951441803E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>113</v>
       </c>
       <c r="B50">
-        <v>2.9306640981448417E-2</v>
+        <v>6.7047624630133917E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>114</v>
       </c>
       <c r="B51" s="3">
-        <v>11356.08108108108</v>
+        <v>12992.932862190815</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,7 +3835,7 @@
         <v>116</v>
       </c>
       <c r="B53">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="3">
-        <v>-398400</v>
+        <v>-407400</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,7 +3859,7 @@
         <v>119</v>
       </c>
       <c r="B56" s="4">
-        <v>0.35769606737348675</v>
+        <v>0.37254287728091473</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,7 +3867,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="4">
-        <v>-0.13027270943692368</v>
+        <v>-0.13757935971903282</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
@@ -3894,13 +3894,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" s="3">
-        <v>38656.41025641025</v>
+        <v>47265</v>
       </c>
       <c r="D63" s="3">
-        <v>-28420.512820512824</v>
+        <v>-28314.999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,13 +3908,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3">
-        <v>46685.714285714283</v>
+        <v>64550</v>
       </c>
       <c r="D64" s="3">
-        <v>-18971.428571428572</v>
+        <v>-22925</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,13 +3922,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
-        <v>44808.333333333328</v>
+        <v>36762.962962962964</v>
       </c>
       <c r="D65" s="3">
-        <v>-18000</v>
+        <v>-14866.666666666666</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,13 +3936,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3">
-        <v>114100</v>
+        <v>79725</v>
       </c>
       <c r="D66" s="3">
-        <v>-7000</v>
+        <v>-23900</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3953,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>66600</v>
+        <v>58760</v>
       </c>
       <c r="D67" s="3">
-        <v>-23800</v>
+        <v>-26800</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,13 +3964,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="3">
-        <v>103150</v>
+        <v>158566.66666666669</v>
       </c>
       <c r="D68" s="3">
-        <v>-50400</v>
+        <v>-77000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C70" s="3">
-        <v>-28324.137931034482</v>
+        <v>-31812.5</v>
       </c>
       <c r="D70" s="3">
-        <v>45855.172413793101</v>
+        <v>52687.5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="B71" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" s="3">
-        <v>-24204.761904761905</v>
+        <v>-28226.315789473683</v>
       </c>
       <c r="D71" s="3">
-        <v>52961.904761904756</v>
+        <v>50642.105263157893</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,13 +4020,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3">
-        <v>-25266.666666666664</v>
+        <v>-31257.142857142855</v>
       </c>
       <c r="D72" s="3">
-        <v>64420.000000000007</v>
+        <v>91400</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,13 +4034,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C73" s="3">
-        <v>-14416.666666666666</v>
+        <v>-12630</v>
       </c>
       <c r="D73" s="3">
-        <v>36000</v>
+        <v>52160</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4048,13 +4048,13 @@
         <v>5</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C74" s="3">
-        <v>-24480</v>
+        <v>-21250</v>
       </c>
       <c r="D74" s="3">
-        <v>65000</v>
+        <v>46950</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,10 +4065,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="3">
-        <v>-22000</v>
+        <v>-16000</v>
       </c>
       <c r="D75" s="3">
-        <v>3600</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,67 +4076,81 @@
         <v>8</v>
       </c>
       <c r="B76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" s="3">
-        <v>-18537.5</v>
+        <v>-15475</v>
       </c>
       <c r="D76" s="3">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+        <v>67800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>12</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3">
+        <v>-12350</v>
+      </c>
+      <c r="D77" s="3">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+    <row r="184" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
+    <row r="236" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
+    <row r="288" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
+    <row r="340" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
+    <row r="392" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="443" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
+    <row r="444" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="495" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A495" s="2" t="s">
+    <row r="496" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="547" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A547" s="2" t="s">
+    <row r="548" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="599" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A599" s="2" t="s">
+    <row r="600" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4148,7 +4162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8892FD60-4BE6-47CE-B85D-49F51892EA81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520AB5E9-154A-454B-B87A-87A2C89595F3}">
   <dimension ref="A1:G838"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4284,22 +4298,22 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>293000</v>
+        <v>757100</v>
       </c>
       <c r="C40" s="4">
-        <v>7.2670453136238503E-2</v>
+        <v>0.19314268221128089</v>
       </c>
       <c r="D40" s="3">
-        <v>329500</v>
+        <v>886500</v>
       </c>
       <c r="E40" s="3">
-        <v>-36500</v>
+        <v>-129400</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G40" s="4">
-        <v>0.66666666666700003</v>
+        <v>0.71428571428599996</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4307,16 +4321,16 @@
         <v>2020</v>
       </c>
       <c r="B41" s="3">
-        <v>1023200</v>
+        <v>1005200</v>
       </c>
       <c r="C41" s="4">
-        <v>0.34008043340977828</v>
+        <v>0.34487254262874395</v>
       </c>
       <c r="D41" s="3">
         <v>1621000</v>
       </c>
       <c r="E41" s="3">
-        <v>-597800</v>
+        <v>-615800</v>
       </c>
       <c r="F41">
         <v>18</v>
@@ -4330,16 +4344,16 @@
         <v>2019</v>
       </c>
       <c r="B42" s="3">
-        <v>575800</v>
+        <v>528000</v>
       </c>
       <c r="C42" s="4">
-        <v>0.23667228410538863</v>
+        <v>0.22122596053127749</v>
       </c>
       <c r="D42" s="3">
-        <v>812800</v>
+        <v>775800</v>
       </c>
       <c r="E42" s="3">
-        <v>-237000</v>
+        <v>-247800</v>
       </c>
       <c r="F42">
         <v>22</v>
@@ -4353,16 +4367,16 @@
         <v>2018</v>
       </c>
       <c r="B43" s="3">
-        <v>67400</v>
+        <v>34400</v>
       </c>
       <c r="C43" s="4">
-        <v>2.8492919044599451E-2</v>
+        <v>1.4623985035922289E-2</v>
       </c>
       <c r="D43" s="3">
-        <v>560000</v>
+        <v>563000</v>
       </c>
       <c r="E43" s="3">
-        <v>-492600</v>
+        <v>-528600</v>
       </c>
       <c r="F43">
         <v>30</v>
@@ -4376,22 +4390,22 @@
         <v>2017</v>
       </c>
       <c r="B44" s="3">
-        <v>231600</v>
+        <v>223000</v>
       </c>
       <c r="C44" s="4">
-        <v>0.1085336707437087</v>
+        <v>0.10472925374536232</v>
       </c>
       <c r="D44" s="3">
-        <v>481000</v>
+        <v>468400</v>
       </c>
       <c r="E44" s="3">
-        <v>-249400</v>
+        <v>-245400</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G44" s="4">
-        <v>0.45833333333300003</v>
+        <v>0.47619047618999999</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -4399,22 +4413,22 @@
         <v>2016</v>
       </c>
       <c r="B45" s="3">
-        <v>438000</v>
+        <v>328600</v>
       </c>
       <c r="C45" s="4">
-        <v>0.25826994516186097</v>
+        <v>0.18248458932637307</v>
       </c>
       <c r="D45" s="3">
-        <v>657100</v>
+        <v>592700</v>
       </c>
       <c r="E45" s="3">
-        <v>-219100</v>
+        <v>-264100</v>
       </c>
       <c r="F45">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G45" s="4">
-        <v>0.54838709677399999</v>
+        <v>0.51724137931000003</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4422,22 +4436,22 @@
         <v>2015</v>
       </c>
       <c r="B46" s="3">
-        <v>-24200</v>
+        <v>16400</v>
       </c>
       <c r="C46" s="4">
-        <v>-1.4068949479681413E-2</v>
+        <v>9.1912794933587394E-3</v>
       </c>
       <c r="D46" s="3">
-        <v>376000</v>
+        <v>368400</v>
       </c>
       <c r="E46" s="3">
-        <v>-400200</v>
+        <v>-352000</v>
       </c>
       <c r="F46">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G46" s="4">
-        <v>0.39393939393900002</v>
+        <v>0.32258064516099999</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4445,22 +4459,22 @@
         <v>2014</v>
       </c>
       <c r="B47" s="3">
-        <v>179200</v>
+        <v>144000</v>
       </c>
       <c r="C47" s="4">
-        <v>0.11629567136089299</v>
+        <v>8.7788819118453945E-2</v>
       </c>
       <c r="D47" s="3">
-        <v>439900</v>
+        <v>430700</v>
       </c>
       <c r="E47" s="3">
-        <v>-260700</v>
+        <v>-286700</v>
       </c>
       <c r="F47">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G47" s="4">
-        <v>0.35714285714299998</v>
+        <v>0.384615384615</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,22 +4482,22 @@
         <v>2013</v>
       </c>
       <c r="B48" s="3">
-        <v>292600</v>
+        <v>307800</v>
       </c>
       <c r="C48" s="4">
-        <v>0.23439878234398781</v>
+        <v>0.23099437148217636</v>
       </c>
       <c r="D48" s="3">
-        <v>486400</v>
+        <v>486000</v>
       </c>
       <c r="E48" s="3">
-        <v>-193800</v>
+        <v>-178200</v>
       </c>
       <c r="F48">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48" s="4">
-        <v>0.41935483871000001</v>
+        <v>0.448275862069</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4491,22 +4505,22 @@
         <v>2012</v>
       </c>
       <c r="B49" s="3">
-        <v>27800</v>
+        <v>80400</v>
       </c>
       <c r="C49" s="4">
-        <v>2.2777550184350678E-2</v>
+        <v>6.4212123632297738E-2</v>
       </c>
       <c r="D49" s="3">
-        <v>461200</v>
+        <v>457400</v>
       </c>
       <c r="E49" s="3">
-        <v>-433400</v>
+        <v>-377000</v>
       </c>
       <c r="F49">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G49" s="4">
-        <v>0.35294117647099998</v>
+        <v>0.41379310344800002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4514,22 +4528,22 @@
         <v>2011</v>
       </c>
       <c r="B50" s="3">
-        <v>-67600</v>
+        <v>-67400</v>
       </c>
       <c r="C50" s="4">
-        <v>-5.2480397484667339E-2</v>
+        <v>-5.1079954528230387E-2</v>
       </c>
       <c r="D50" s="3">
-        <v>335100</v>
+        <v>315700</v>
       </c>
       <c r="E50" s="3">
-        <v>-402700</v>
+        <v>-383100</v>
       </c>
       <c r="F50">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50" s="4">
-        <v>0.36666666666699999</v>
+        <v>0.35714285714299998</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,16 +4551,16 @@
         <v>2010</v>
       </c>
       <c r="B51" s="3">
-        <v>288100</v>
+        <v>319500</v>
       </c>
       <c r="C51" s="4">
-        <v>0.28810000000000002</v>
+        <v>0.31950000000000001</v>
       </c>
       <c r="D51" s="3">
-        <v>566500</v>
+        <v>609100</v>
       </c>
       <c r="E51" s="3">
-        <v>-278400</v>
+        <v>-289600</v>
       </c>
       <c r="F51">
         <v>24</v>
@@ -4653,7 +4667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8255FA-72C7-4FB6-83C2-A2831782FB5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C276FB-4A56-4C06-839C-E756AAA2EFA1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
